--- a/src/statistika_computervision.xlsx
+++ b/src/statistika_computervision.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kubi\MATLAB\PV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\CompVision\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565E0C9A-DC62-42DD-8634-C6E3FDA50AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C7539-A4BC-4E45-8A36-D1A3EEF1CAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B33E3084-D39D-4D62-85B1-AF14C67642DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B33E3084-D39D-4D62-85B1-AF14C67642DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,16 +393,16 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F1" sqref="F1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.38125799999999999</v>
       </c>
@@ -418,7 +418,7 @@
         <v>0.2415813</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.18192630000000001</v>
       </c>
@@ -426,7 +426,7 @@
         <v>0.1023121</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.16841200000000001</v>
       </c>
@@ -434,7 +434,7 @@
         <v>0.10019840000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.16957420000000001</v>
       </c>
@@ -442,7 +442,7 @@
         <v>0.1079806</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.17540700000000001</v>
       </c>
@@ -450,7 +450,7 @@
         <v>0.1043767</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.16869790000000001</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0.1029011</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.1725978</v>
       </c>
@@ -466,7 +466,7 @@
         <v>0.1022276</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.17127980000000001</v>
       </c>
@@ -474,7 +474,7 @@
         <v>0.1035851</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.16870789999999999</v>
       </c>
@@ -482,7 +482,7 @@
         <v>0.1044249</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.17055690000000001</v>
       </c>
@@ -490,7 +490,7 @@
         <v>9.6760399999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.2205992</v>
       </c>
@@ -498,7 +498,7 @@
         <v>0.1069995</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.17144200000000001</v>
       </c>
@@ -506,7 +506,7 @@
         <v>0.1278425</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.1921602</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0.35705490000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.18342079999999999</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0.1029245</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.19068850000000001</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.1146789</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.18046110000000001</v>
       </c>
@@ -538,7 +538,7 @@
         <v>0.1027035</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.16884940000000001</v>
       </c>
@@ -546,7 +546,7 @@
         <v>0.1049152</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.18525520000000001</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0.1200179</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.18518380000000001</v>
       </c>
@@ -562,7 +562,7 @@
         <v>0.2997206</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.17034740000000001</v>
       </c>
@@ -570,7 +570,7 @@
         <v>9.4037099999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.17522309999999999</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0.1023389</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.18501290000000001</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0.1115182</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.1784435</v>
       </c>
@@ -594,7 +594,7 @@
         <v>0.1986549</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.2074541</v>
       </c>
@@ -602,7 +602,7 @@
         <v>0.1033275</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.17755170000000001</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0.1024852</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.18165329999999999</v>
       </c>
@@ -618,7 +618,7 @@
         <v>0.1008391</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.1690924</v>
       </c>
@@ -626,7 +626,7 @@
         <v>9.8738999999999993E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.16770750000000001</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0.10001019999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.20767179999999999</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0.1068842</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.18850210000000001</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0.1040794</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.21300359999999999</v>
       </c>
@@ -658,7 +658,7 @@
         <v>0.14519370000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.1784791</v>
       </c>
@@ -666,7 +666,7 @@
         <v>0.14591499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.18673029999999999</v>
       </c>
@@ -674,7 +674,7 @@
         <v>9.6733700000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.24732999999999999</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0.134162</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.19352050000000001</v>
       </c>
@@ -690,7 +690,7 @@
         <v>0.13239400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.20431859999999999</v>
       </c>
@@ -698,7 +698,7 @@
         <v>0.15605060000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.20117650000000001</v>
       </c>
@@ -706,7 +706,7 @@
         <v>0.157245</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.45668019999999998</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0.19658120000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.2051664</v>
       </c>
@@ -722,7 +722,7 @@
         <v>0.1010616</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.17561560000000001</v>
       </c>
@@ -730,7 +730,7 @@
         <v>0.1023099</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.18455070000000001</v>
       </c>
@@ -738,7 +738,7 @@
         <v>0.1130182</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.1782263</v>
       </c>
@@ -746,7 +746,7 @@
         <v>0.1126233</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.17203940000000001</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0.1010176</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.1848786</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0.11926349999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.16827120000000001</v>
       </c>
@@ -770,7 +770,7 @@
         <v>9.8248199999999994E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.17533699999999999</v>
       </c>
@@ -778,7 +778,7 @@
         <v>9.9711800000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.17463020000000001</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0.10085429999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.24393709999999999</v>
       </c>
@@ -794,7 +794,7 @@
         <v>0.1194436</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.17083090000000001</v>
       </c>
@@ -802,7 +802,7 @@
         <v>9.0683799999999995E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.18017730000000001</v>
       </c>
@@ -810,7 +810,7 @@
         <v>0.1251042</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.21954399999999999</v>
       </c>
@@ -818,7 +818,7 @@
         <v>0.1285674</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.18021590000000001</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0.1750766</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.20850340000000001</v>
       </c>
@@ -834,7 +834,7 @@
         <v>0.12819430000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.2479364</v>
       </c>
@@ -842,7 +842,7 @@
         <v>0.1341097</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.31455240000000001</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0.1453641</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.24993270000000001</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0.1717989</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.18186359999999999</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0.1099468</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.19365019999999999</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.12847159999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.20930989999999999</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0.13464709999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.21451049999999999</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0.14322219999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.22600770000000001</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0.14668629999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.23403689999999999</v>
       </c>
@@ -906,7 +906,7 @@
         <v>0.15190119999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.2195897</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0.16691010000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.23519280000000001</v>
       </c>
@@ -922,7 +922,7 @@
         <v>0.14745649999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.22494030000000001</v>
       </c>
@@ -930,7 +930,7 @@
         <v>0.1400882</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.21633559999999999</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0.132378</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.2267557</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0.1451799</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.22325339999999999</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0.1422089</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.22900989999999999</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0.14096910000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.2235065</v>
       </c>
@@ -970,7 +970,7 @@
         <v>0.1406905</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.2224633</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0.13969870000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.2153727</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0.13950940000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.21596480000000001</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0.13728109999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.2099036</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0.14037830000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.2111151</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0.13984170000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.22721179999999999</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>0.14406269999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.21471470000000001</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>0.14308650000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.2222451</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0.14043800000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.21171019999999999</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0.14076520000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.2095381</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.14038980000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.206895</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0.137022</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.21103649999999999</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0.1277636</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.20914840000000001</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0.13645070000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.2371617</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0.1428422</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.21527299999999999</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0.1398903</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.21842800000000001</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0.14191799999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.2138342</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>0.13919580000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.2100291</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0.13655139999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.21096139999999999</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0.1297932</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.21319170000000001</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0.12516679999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.20511799999999999</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0.13537540000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.2194094</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0.13514979999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.2065206</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0.13392789999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.2135948</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0.1366832</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.20876500000000001</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0.13483780000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.20874219999999999</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0.13485359999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.20714260000000001</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>0.1373393</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.2100245</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0.13530980000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.20553150000000001</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0.12497850000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.21188280000000001</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0.142183</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.26599080000000003</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0.1703568</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.26908900000000002</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0.1569256</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.24252650000000001</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0.13822789999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.2264765</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0.1509383</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.22412360000000001</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>0.1414696</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.21870490000000001</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0.1367218</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.21336279999999999</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0.13667219999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.20562279999999999</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>0.1392342</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.2045488</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0.18255569999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.21108070000000001</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0.13309750000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.21085599999999999</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0.13943939999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.29258679999999998</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0.1593802</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.2256069</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>0.13947090000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.22003619999999999</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0.142067</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.21964449999999999</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0.13949210000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.2117319</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0.13710339999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.20839559999999999</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>0.13443769999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.208175</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0.13392999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.20765710000000001</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.13650480000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.20614959999999999</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.1375006</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0.2062165</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0.13476759999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.20995220000000001</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0.1349137</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0.29262830000000001</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0.16292400000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0.2319379</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0.1525473</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.2321329</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0.14649709999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0.21951229999999999</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0.14114879999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0.21621580000000001</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0.13131899999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0.20712929999999999</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0.1376059</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>0.21374180000000001</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>0.13423489999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.2013867</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0.13685059999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>0.2071788</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0.13578460000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.20455960000000001</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>0.133851</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.204378</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>0.12874759999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.2127616</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0.12674360000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0.20293890000000001</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0.1314553</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.2077309</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0.13102929999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0.20214309999999999</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0.1339979</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0.20211119999999999</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0.13182469999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.21021989999999999</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>0.13612750000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.20731069999999999</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0.1260492</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>0.20118069999999999</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0.1327631</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.19771810000000001</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0.13265389999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>0.2083816</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0.1379919</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0.2126381</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0.13374449999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0.20714659999999999</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0.13443620000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0.20627090000000001</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0.13437750000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.2051663</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0.13405429999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0.20509469999999999</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0.12723599999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0.20664379999999999</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>0.13250000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0.20350280000000001</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0.1220132</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>0.2111209</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0.13616919999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>0.20303779999999999</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0.1318772</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0.2085717</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>0.12308089999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0.208118</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0.13710620000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0.20745669999999999</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>0.12658369999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0.20619789999999999</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0.13545090000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0.20644280000000001</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0.13611490000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0.2110679</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>0.13514280000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0.20788499999999999</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0.13426479999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0.20609630000000001</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0.13266729999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0.20349229999999999</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0.1326841</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0.2093428</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0.13128490000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0.2059435</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0.13539909999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0.23140469999999999</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0.12741240000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>0.2063622</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0.1377941</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>0.21239169999999999</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>0.13536390000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>0.23947089999999999</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0.15715229999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>0.25868760000000002</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0.1599101</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.23693069999999999</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0.15027450000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.21913679999999999</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0.1444001</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.2182818</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>0.13293440000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.2060438</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0.12940650000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>0.21123210000000001</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0.1345644</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0.20713309999999999</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0.13511580000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>0.24889040000000001</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0.16317909999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>0.24213460000000001</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0.1960731</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>0.22373489999999999</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>0.18420130000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>0.236539</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>0.18724379999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0.2348314</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0.1448663</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0.25946710000000001</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0.1452214</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>0.2184217</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0.15377660000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>0.25017630000000002</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>0.1510204</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0.2152522</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0.1585444</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0.25095919999999999</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0.1475688</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>0.2216389</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>0.14840719999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0.29069299999999998</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0.17105790000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>0.24977750000000001</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>0.14879999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0.2308683</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0.1436723</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.21477889999999999</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>0.13280690000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.2120206</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0.1387834</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.2107395</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0.13500760000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0.2193167</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0.13532330000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0.20530909999999999</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0.1330307</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0.19873550000000001</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0.14944789999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0.25594980000000001</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0.1520696</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>0.25205119999999998</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0.15557750000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0.23012940000000001</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0.14838570000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>0.28246880000000002</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0.1556642</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0.23288249999999999</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0.1568185</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0.2185259</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0.2310005</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0.2930373</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0.19769249999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>0.2875084</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0.2179799</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0.23273369999999999</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0.1521112</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0.22699929999999999</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0.168876</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0.23614789999999999</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>0.14900150000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0.2198447</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0.136605</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>0.22136030000000001</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0.1417861</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>0.21791940000000001</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0.14172299999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>0.21564549999999999</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.12792770000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>0.21389089999999999</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0.13625180000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>0.20047580000000001</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0.1346695</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0.20268630000000001</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0.13478809999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>0.20026070000000001</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0.1340401</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0.2227354</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0.13865659999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>0.21268400000000001</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0.12585189999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>0.2163929</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>0.13381180000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>0.19848389999999999</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>0.13246079999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>0.20234279999999999</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0.13128880000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>0.20481099999999999</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0.13014680000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>0.20578099999999999</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>0.13195460000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>0.2028954</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>0.13274</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>0.19775519999999999</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>0.13484969999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0.19867989999999999</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0.13458300000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0.2027969</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>0.13320679999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>0.2060129</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0.13594690000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>0.19722149999999999</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0.1332672</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>0.19998589999999999</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0.13031400000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>0.19728580000000001</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0.13104830000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0.1964603</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0.1299457</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>0.196572</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0.1291833</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0.20113500000000001</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>0.12874430000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>0.20404410000000001</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0.13032009999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0.2003788</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0.13279730000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.2070119</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0.1314129</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>0.19685349999999999</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0.13281200000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>0.2441325</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0.1527819</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0.2034726</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0.14039879999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>0.2082321</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0.13438310000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0.20011490000000001</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>0.13401869999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>0.20484920000000001</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0.24595139999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>0.2523629</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0.14933740000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>0.2143147</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>0.14248369999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>0.21823329999999999</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>0.14118159999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0.21191380000000001</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0.13225619999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>0.20388490000000001</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0.1365015</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>0.2010691</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0.13396569999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>0.1993278</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0.13379930000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>0.20482449999999999</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0.1262335</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>0.20115330000000001</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>0.1351802</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>0.20089960000000001</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0.15169350000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>0.2555692</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0.22933580000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>0.24549589999999999</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0.1415862</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>0.2174315</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0.14333679999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>0.22289100000000001</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0.13966909999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>0.20390720000000001</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0.13605909999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>0.20763670000000001</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0.13451050000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>0.20017560000000001</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>0.1374871</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>0.2006492</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>0.13415640000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>0.20427629999999999</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0.1371425</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>0.20649010000000001</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>0.13410900000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>0.2030469</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>0.13347049999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>0.20512130000000001</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0.13598260000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>0.20087559999999999</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>0.1313801</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>0.28516540000000001</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0.14239830000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>0.20441960000000001</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>0.1306127</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>0.25129020000000002</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0.1520174</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>0.20688110000000001</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>0.1367652</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>0.20694599999999999</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0.14037330000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>0.21836059999999999</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>0.1338114</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>0.20238390000000001</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0.13633229999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>0.20415420000000001</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0.13833599999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>0.2071462</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0.13491159999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>0.20681179999999999</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0.12718489999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>0.20623279999999999</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0.1325411</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>0.19599420000000001</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0.1325469</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>0.20557629999999999</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0.1328076</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>0.2093303</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>0.1324108</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>0.20003009999999999</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0.13266230000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>0.20679</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>0.13796829999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>0.21055479999999999</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0.12568869999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>0.1975121</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0.1319466</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>0.20753250000000001</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>0.1285019</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>0.20397219999999999</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>0.13238320000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>0.20345579999999999</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0.1233115</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>0.2013887</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0.13550419999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>0.20101140000000001</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>0.1333027</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>0.19892309999999999</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0.13273960000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>0.2024039</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0.1283803</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>0.2043577</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0.13194500000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>0.2013172</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0.13190760000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>0.20498479999999999</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0.12401860000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>0.21470410000000001</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>0.1311329</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>0.19578950000000001</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0.13145280000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>0.20434859999999999</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>0.1242497</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>0.2068904</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0.1236758</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>0.20843139999999999</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0.13275419999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>0.19724549999999999</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>0.1316011</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>0.19817119999999999</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0.131552</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>0.19974230000000001</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0.13073080000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>0.19685330000000001</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0.12530620000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>0.2041085</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0.13042390000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>0.19944010000000001</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0.129244</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>0.19657140000000001</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0.13739580000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>0.2030161</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0.135542</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>0.198737</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0.1334504</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>0.2050053</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0.12625910000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0.2070941</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0.13167480000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>0.19799720000000001</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0.13342619999999999</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>0.2094906</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0.13334989999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>0.20649580000000001</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0.1316002</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>0.19883229999999999</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0.1297896</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>0.19723969999999999</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>0.1345018</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>0.21912580000000001</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0.13449849999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>0.20728830000000001</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0.12474830000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>0.19610250000000001</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>0.1331022</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>0.2027553</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0.1240641</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>0.19889229999999999</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0.13114629999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>0.198516</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0.13146350000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>0.20105149999999999</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>0.12897310000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>0.20376349999999999</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0.13927</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>0.20184730000000001</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>0.12537400000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>0.20485239999999999</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0.13625429999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>0.20156080000000001</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0.1443979</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>0.20644609999999999</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0.1361975</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>0.20105219999999999</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0.1367498</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>0.2078564</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0.13505449999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>0.20175799999999999</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>0.13472100000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>0.19822190000000001</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>0.1345269</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>0.1985558</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0.1358124</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>0.20787410000000001</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0.13692280000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>0.2293897</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0.1339486</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>0.2123255</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0.14387320000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>0.21943389999999999</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0.1562981</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>0.26911190000000001</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0.1805339</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>0.3005563</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0.21019640000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>0.35413430000000001</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0.19708049999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>0.35263610000000001</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0.21251129999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>0.40562589999999998</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>0.27010689999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>0.3648438</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0.1954477</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>0.35108679999999998</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0.22437080000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>0.37138860000000001</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0.19697010000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>0.34804279999999999</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0.21711340000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>0.3546223</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0.2306793</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>0.34603119999999998</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0.22551589999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>0.3221928</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0.2092281</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>0.33583449999999998</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.2074078</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>0.32052140000000001</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0.18068790000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>0.25617509999999999</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0.16184109999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>0.22835359999999999</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>0.14886060000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>0.21250550000000001</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0.13992109999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>0.20669509999999999</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0.13753470000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>0.20950849999999999</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0.13387109999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>0.2481698</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0.16955329999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>0.23800479999999999</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0.1667662</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>0.24276700000000001</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0.17952779999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>0.21067710000000001</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0.16911789999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>0.24117330000000001</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>0.1439233</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>0.2485714</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0.13776440000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>0.20670279999999999</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0.1402957</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>0.2564169</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>0.1342168</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>0.213005</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>0.13798360000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>0.26622050000000003</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>0.17158580000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>0.24252879999999999</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0.15294840000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>0.25805040000000001</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0.1447321</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>0.2169941</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>0.1635287</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>0.21688640000000001</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0.13998630000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>0.2073265</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>0.13814989999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>0.2008894</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0.13404089999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>0.20392070000000001</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0.13381199999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>0.20315569999999999</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0.1339409</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>0.1997292</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>0.13408310000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>0.19829189999999999</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0.1267152</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>0.19741149999999999</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0.13267290000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>0.1973752</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>0.13577339999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>0.20214109999999999</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>0.1325896</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>0.2020989</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0.1333936</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>0.20272680000000001</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>0.1324977</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>0.2033701</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0.1239866</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>0.1979167</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0.13114980000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>0.19601440000000001</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0.1320557</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>0.20511550000000001</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0.13477359999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>0.20192160000000001</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0.1315615</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>0.19977310000000001</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>0.13011030000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>0.19590270000000001</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>0.13297610000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>0.2177451</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>0.12916259999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>0.2016548</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>0.13160179999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>0.19552269999999999</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>0.1546952</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>0.21946270000000001</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0.13496459999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>0.20108570000000001</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0.13534260000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>0.20244989999999999</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0.1340818</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>0.20998900000000001</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0.13313249999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>0.20180119999999999</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0.1993096</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>0.25145129999999999</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0.17608679999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>0.2493802</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>0.15032870000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>0.2179499</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0.1459268</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>0.2172125</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0.1386452</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>0.20589009999999999</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0.13742660000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>0.20757539999999999</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0.13769519999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>0.20071800000000001</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0.13654179999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>0.20861379999999999</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0.1394783</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>0.20530419999999999</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0.13828119999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>0.2021876</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>0.1327874</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>0.2029869</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0.13350239999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>0.19962299999999999</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0.1334052</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>0.20931130000000001</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>0.13257289999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>0.20056499999999999</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0.1341667</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>0.21162300000000001</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0.1351156</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>0.2091568</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0.13581380000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>0.207091</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0.1354851</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>0.19991220000000001</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0.13487759999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>0.20684759999999999</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0.1248148</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>0.1966755</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0.1245266</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>0.2077995</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>0.13398840000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>0.20765230000000001</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0.13447509999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>0.20785909999999999</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>0.13184190000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>0.19764100000000001</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>0.1338203</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>0.20092119999999999</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0.13412669999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>0.2026181</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0.1320665</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>0.19702919999999999</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0.1221111</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>0.20535719999999999</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0.1273215</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>0.20514209999999999</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0.1279265</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>0.20667160000000001</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0.13537779999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>0.2006976</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0.13303029999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>0.19848850000000001</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0.13494229999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>0.20380139999999999</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>0.1259111</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>0.19875180000000001</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0.1322923</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>0.205094</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>0.12425029999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>0.19560630000000001</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0.13723369999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>0.1953616</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>0.13074479999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>0.20222509999999999</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0.1221367</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>0.20855309999999999</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0.1221766</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>0.2010921</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0.12940099999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>0.19944880000000001</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0.1326676</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>0.1962768</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0.13183600000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>0.20330889999999999</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0.1247397</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>0.21447179999999999</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0.1330383</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>0.1956949</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>0.13407810000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>0.21044560000000001</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0.1332767</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>0.1988357</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0.1334533</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>0.19986229999999999</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0.1232809</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>0.1964571</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0.12551699999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>0.19593679999999999</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>0.12622800000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>0.20201910000000001</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0.13484270000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>0.19751299999999999</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>0.13440070000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>0.20081489999999999</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0.13344729999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>0.20144809999999999</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0.1352757</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>0.19814180000000001</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>0.1338316</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>0.1985045</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0.1359254</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>0.1972536</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0.1336368</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>0.1959834</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>0.13422519999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>0.1982285</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>0.13265370000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>0.19721130000000001</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0.1329642</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>0.19576350000000001</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>0.13193189999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>0.201209</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0.13362789999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>0.19633639999999999</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0.1236823</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>0.20046530000000001</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0.1245803</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>0.1965238</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0.13271150000000001</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>0.19641700000000001</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>0.13141149999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>0.201574</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>0.1302576</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>0.19729389999999999</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0.1250404</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>0.2047534</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>0.1233588</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>0.19540879999999999</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0.12501909999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>0.19661429999999999</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0.131547</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>0.20016880000000001</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0.13207949999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>0.19720389999999999</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0.1221674</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>0.19798640000000001</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0.13403860000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>0.20647199999999999</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0.1333955</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>0.2110929</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0.1300297</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>0.19811790000000001</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0.12945519999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>0.20293249999999999</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0.13000819999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>0.19937679999999999</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>0.1291339</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>0.19626109999999999</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>0.13174930000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>0.2008315</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0.13351379999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>0.19962820000000001</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0.13119720000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>0.1981299</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>0.1346976</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>0.20235410000000001</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0.1279101</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>0.19725770000000001</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0.1327229</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>0.200822</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0.1313069</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>0.20550399999999999</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0.13269049999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>0.19554730000000001</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0.13083359999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>0.2066306</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>0.1240463</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>0.19998869999999999</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0.13362769999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>0.20102400000000001</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0.13255810000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>0.20118140000000001</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0.13125220000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>0.19586919999999999</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>0.13291330000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>0.1967303</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>0.12513669999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>0.20234550000000001</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0.13151869999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>0.1971658</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>0.124429</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>0.20301959999999999</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>0.123848</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>0.19919400000000001</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0.13500409999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>0.200155</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>0.13334869999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>0.19886309999999999</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>0.13309370000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>0.19869339999999999</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0.1326387</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>0.22172049999999999</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0.1255811</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>0.1979852</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0.13518069999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>0.20114969999999999</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>0.13524820000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>0.19724259999999999</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>0.13267870000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>0.20386000000000001</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0.132107</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>0.19930300000000001</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0.12503120000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>0.23027700000000001</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>0.15007960000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>0.28142739999999999</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0.1718643</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>0.26079869999999999</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0.16176670000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>0.2391181</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0.15299879999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>0.21736169999999999</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0.14946760000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>0.20676059999999999</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0.14191119999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>0.2191216</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>0.14133699999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>0.2030757</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>0.1361029</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>0.20803150000000001</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0.12579000000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>0.1992178</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0.13401360000000001</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>0.21180089999999999</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>0.12824940000000001</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>0.1983104</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0.1340568</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>0.19713639999999999</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>0.13361999999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>0.1973143</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0.13053419999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>0.20019380000000001</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0.133576</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>0.19520889999999999</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>0.1236843</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>0.20083980000000001</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>0.13044439999999999</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>0.19579369999999999</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0.1238185</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>0.20246639999999999</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0.13260459999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>0.19892480000000001</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>0.1353509</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>0.19894319999999999</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0.125782</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>0.2039579</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>0.13066179999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>0.20018449999999999</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0.13117100000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>0.20046449999999999</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0.1357757</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>0.20212620000000001</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>0.13521949999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>0.20314080000000001</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0.12512039999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>0.2170618</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>0.12261039999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>0.19865079999999999</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0.13343459999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>0.20210249999999999</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>0.1310403</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>0.19807340000000001</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>0.1302471</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>0.1966078</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0.1306155</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>0.19728670000000001</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>0.1300693</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>0.20234379999999999</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>0.1262472</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>0.19896130000000001</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>0.13400239999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>0.20524729999999999</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>0.13492009999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>0.20465459999999999</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0.13585849999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>0.19822899999999999</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>0.1340847</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>0.19640630000000001</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>0.1312171</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>0.2021058</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0.13322390000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>0.19590769999999999</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>0.13070490000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>0.19809669999999999</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>0.13334299999999999</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>0.19765360000000001</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0.1333106</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>0.19510949999999999</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0.13142110000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>0.1985712</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>0.1235759</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>0.19682759999999999</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>0.13320850000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>0.20703849999999999</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>0.1554403</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>0.26217420000000002</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>0.14921519999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>0.25300329999999999</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0.1550957</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>0.27315600000000001</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>0.14154259999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>0.26379350000000001</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0.14499409999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>0.2167337</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0.19907079999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>0.2101942</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0.13408999999999999</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>0.23396510000000001</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0.15916640000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>0.2154565</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0.14116690000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>0.2437444</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>0.16402630000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>0.25239089999999997</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>0.17400860000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>0.23923440000000001</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>0.1842792</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>0.2302264</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>0.15081820000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>0.21965419999999999</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>0.14542269999999999</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>0.21264340000000001</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0.14126059999999999</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>0.20612050000000001</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0.13703370000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>0.2066375</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>0.13349639999999999</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>0.20667769999999999</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0.13243569999999999</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>0.2062021</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0.13406319999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>0.20321349999999999</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0.13385720000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>0.19713449999999999</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0.1337169</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>0.2229893</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>0.13538929999999999</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>0.196433</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0.13525329999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>0.1971639</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0.1335636</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>0.19870860000000001</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>0.1313955</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>0.19590859999999999</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>0.13155929999999999</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>0.2003006</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>0.1303472</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>0.20380200000000001</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>0.1319459</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>0.19467110000000001</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>0.1321629</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>0.19661110000000001</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0.13250020000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>0.19789970000000001</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0.13175029999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>0.20340079999999999</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0.13562279999999999</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>0.3160694</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>0.139872</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>0.20454919999999999</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>0.1383731</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>0.2002401</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>0.13430729999999999</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>0.23082900000000001</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0.12601490000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>0.2090303</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>0.13357269999999999</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>0.20318939999999999</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>0.1325538</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>0.2021954</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>0.14026040000000001</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>0.20106009999999999</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>0.13349269999999999</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>0.20866370000000001</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>0.12457890000000001</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>0.20368349999999999</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>0.13400880000000001</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>0.20236770000000001</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>0.1327073</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>0.2026724</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>0.13588320000000001</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>0.20152529999999999</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>0.13454969999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>0.20415730000000001</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>0.131406</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>0.1986993</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>0.13384950000000001</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>0.20574100000000001</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>0.13300709999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>0.20081389999999999</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>0.13497029999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>0.20508489999999999</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>0.13602529999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>0.19730719999999999</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0.132358</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>0.1984234</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>0.123582</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>0.19983110000000001</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>0.13561019999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>0.20004849999999999</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>0.1340616</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>0.1972817</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>0.13238079999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>0.1961676</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>0.12725259999999999</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>0.2019657</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0.1344639</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>0.21214930000000001</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>0.1328608</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>0.19733590000000001</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0.12518219999999999</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>0.19897529999999999</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>0.13668669999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>0.2041808</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0.1236608</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>0.20553630000000001</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>0.13442699999999999</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>0.20020089999999999</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>0.1360527</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>0.1974919</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0.12551999999999999</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>0.1993385</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>0.13968510000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>0.23459679999999999</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0.13973650000000001</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>0.20624890000000001</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>0.13956489999999999</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>0.2087253</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>0.144535</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>0.20680109999999999</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>0.14354430000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>0.2128504</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>0.14100570000000001</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>0.2064365</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>0.1286149</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>0.2087996</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0.133496</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>0.19888549999999999</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0.13494400000000001</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>0.19920289999999999</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0.13522780000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>0.20626829999999999</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>0.13339010000000001</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>0.2080496</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>0.1334612</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>0.20936579999999999</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>0.12463929999999999</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>0.200183</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>0.13416890000000001</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>0.2025875</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>0.1333375</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>0.20711450000000001</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>0.13225319999999999</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>0.2021569</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0.13364909999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>0.1984108</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0.1333955</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>0.2080678</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>0.1372505</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>0.20174700000000001</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0.13380220000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>0.19649730000000001</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>0.13516130000000001</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>0.2006251</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>0.12460450000000001</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>0.20026669999999999</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>0.13303419999999999</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>0.20711930000000001</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>0.12533459999999999</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>0.2012468</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>0.1337691</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>0.20470630000000001</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>0.13345989999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>0.20018240000000001</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0.13431750000000001</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>0.20122190000000001</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>0.13296040000000001</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>0.1958126</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>0.13094330000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>0.20000570000000001</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>0.13303780000000001</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>0.21162790000000001</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>0.13362830000000001</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>0.20239499999999999</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0.1253753</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>0.20308619999999999</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0.13679140000000001</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>0.2050488</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>0.13371130000000001</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>0.19837669999999999</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>0.13289000000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>0.19770090000000001</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0.12740560000000001</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>0.2019174</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>0.13446150000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>0.19936690000000001</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0.13333709999999999</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>0.1962486</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>0.1343734</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>0.1993055</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0.1327448</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>0.19705410000000001</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>0.12506110000000001</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>0.20208390000000001</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>0.1327777</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>0.20451839999999999</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>0.13120000000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>0.196822</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0.13048270000000001</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>0.19841039999999999</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0.13137180000000001</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>0.2000536</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>0.123877</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>0.2054301</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0.13109789999999999</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>0.19521530000000001</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>0.1218862</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>0.1952624</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0.1340614</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>0.2178224</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>0.12680720000000001</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>0.2001764</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>0.13310910000000001</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>0.20218939999999999</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>0.13126260000000001</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>0.20124220000000001</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>0.13094700000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>0.2043278</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>0.1327517</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>0.2068904</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>0.1302915</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>0.19938320000000001</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0.13146830000000001</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>0.19735459999999999</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>0.13022310000000001</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>0.20430480000000001</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0.1262028</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>0.1994319</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>0.1236825</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>0.2026869</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>0.13105439999999999</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>0.19841619999999999</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>0.13731560000000001</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>0.19916030000000001</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0.13514499999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>0.19456670000000001</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0.13111300000000001</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>0.1980141</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>0.13469300000000001</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>0.2020787</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>0.13443659999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>0.1971473</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>0.1329805</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>0.20679449999999999</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>0.13309779999999999</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>0.1980489</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0.13273190000000001</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>0.20327039999999999</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>0.1327451</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>0.198629</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>0.13579669999999999</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>0.208755</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>0.12558830000000001</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>0.20028770000000001</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>0.13890330000000001</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>0.20820179999999999</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>0.13454479999999999</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>0.20345659999999999</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>0.12577940000000001</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>0.21547839999999999</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0.13306399999999999</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>0.2066161</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>0.1257847</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>0.1994437</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0.1338551</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>0.19934489999999999</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>0.12793199999999999</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>0.20683670000000001</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>0.1250481</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>0.20092570000000001</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>0.1249714</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>0.19899259999999999</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0.14818909999999999</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>0.22711490000000001</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>0.13733039999999999</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>0.2131633</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0.13489380000000001</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>0.2349569</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>0.13169</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>0.21442410000000001</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>0.13558310000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>0.20758309999999999</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>0.13359480000000001</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>0.19995389999999999</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>0.12511149999999999</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>0.21206530000000001</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>0.13536390000000001</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>0.1980422</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>0.1331676</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>0.19858729999999999</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>0.1345393</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>0.20417460000000001</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>0.12740889999999999</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>0.1987168</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>0.1329737</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>0.19670960000000001</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>0.13527459999999999</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>0.1979438</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>0.1227245</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>0.19671240000000001</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>0.1261215</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>0.20072780000000001</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>0.1271476</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>0.2108246</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0.13348099999999999</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>0.1998144</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0.1314456</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>0.20247080000000001</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>0.12324019999999999</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>0.19793459999999999</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>0.13323289999999999</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>0.2005237</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>0.13130520000000001</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>0.19842679999999999</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>0.12956889999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>0.1989435</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>0.13254150000000001</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>0.1988027</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0.1320646</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>0.201844</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>0.13192899999999999</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>0.20671320000000001</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>0.12155729999999999</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>0.19907140000000001</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>0.1221978</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>0.19617580000000001</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>0.1309205</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>0.1963683</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>0.12923419999999999</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>0.2029551</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>0.1230323</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>0.1960373</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>0.13500880000000001</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>0.21125089999999999</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>0.1325259</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>0.20309140000000001</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>0.1343163</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>0.19695080000000001</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>0.13181200000000001</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>0.19615540000000001</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>0.1241911</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>0.19918649999999999</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>0.13282279999999999</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>0.2059744</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>0.13015969999999999</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>0.2095041</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>0.12211080000000001</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>0.20472370000000001</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>0.13066040000000001</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>0.1963722</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>0.13206760000000001</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>0.20623569999999999</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0.13095290000000001</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>0.20404649999999999</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0.1221763</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>0.19550120000000001</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>0.13066230000000001</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>0.197854</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>0.1297924</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>0.19674720000000001</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>0.1307632</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>0.19854759999999999</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>0.13106200000000001</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>0.2004774</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>0.13321230000000001</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>0.19753370000000001</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0.12637499999999999</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>0.2079713</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>0.13362270000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>0.21349170000000001</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>0.14631079999999999</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>0.25820660000000001</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>0.14734720000000001</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>0.27771050000000003</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>0.15767809999999999</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>0.24123</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>0.14641779999999999</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>0.2625594</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>0.14447589999999999</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>0.20954999999999999</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>0.1759442</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>0.22126999999999999</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>0.14765890000000001</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>0.25841999999999998</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>0.16047649999999999</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>0.26343040000000001</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0.19258800000000001</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>0.25912010000000002</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0.19969110000000001</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>0.27383370000000001</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>0.23012769999999999</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>0.29415350000000001</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>0.19907349999999999</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>0.27030549999999998</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>0.1503786</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>0.2288453</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>0.1487945</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>0.21572069999999999</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>0.14639269999999999</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>0.2119413</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0.13966139999999999</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>0.2056991</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>0.13597899999999999</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>0.20176720000000001</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>0.12642629999999999</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>0.21820490000000001</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>0.1331939</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>0.2018838</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0.1360856</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>0.2038761</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>0.13529969999999999</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>0.21457109999999999</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>0.13317370000000001</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>0.2245598</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0.13489599999999999</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>0.203931</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>0.13324759999999999</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>0.2055447</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0.1332981</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>0.20438600000000001</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>0.1357302</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>0.19839219999999999</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>0.12863479999999999</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>0.2014466</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>0.13362370000000001</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>0.19752040000000001</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>0.12495820000000001</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>0.2008741</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>0.1338859</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>0.2056037</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>0.12980610000000001</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>0.1985304</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0.1340904</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>0.1975585</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>0.13320960000000001</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>0.1961985</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.1336271</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>0.1979919</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0.13169330000000001</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>0.1998798</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>0.1337073</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>0.19693930000000001</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>0.13180439999999999</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>0.1982737</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>0.13076399999999999</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>0.2086595</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0.1320962</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>0.2103189</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>0.13715769999999999</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>0.2089819</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>0.12652669999999999</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>0.20460329999999999</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.12166250000000001</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>0.19628909999999999</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.13045870000000001</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>0.19694410000000001</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.121321</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>0.1969119</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>0.1228892</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>0.1979234</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0.13258500000000001</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>0.19960410000000001</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>0.1298098</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>0.19528799999999999</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>0.13418910000000001</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>0.19581009999999999</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>0.1241752</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>0.20116329999999999</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0.13003120000000001</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>0.2030392</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>0.1300502</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>0.1985867</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>0.1325836</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>0.20165340000000001</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>0.12528900000000001</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>0.1980673</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>0.13525029999999999</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>0.1963086</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>0.13216130000000001</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>0.2046945</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0.125668</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>0.20833589999999999</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0.13334460000000001</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>0.2003703</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>0.1261111</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>0.20335619999999999</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>0.131409</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>0.21296090000000001</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>0.13337270000000001</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>0.199652</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>0.1323618</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>0.19701779999999999</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>0.13175020000000001</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>0.20009270000000001</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>0.13172880000000001</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>0.2017477</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>0.13295750000000001</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>0.19611139999999999</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>0.13061909999999999</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>0.20674429999999999</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>0.1286052</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>0.1966185</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>0.13133259999999999</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>0.20249729999999999</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0.1302527</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>0.1978462</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>0.12996650000000001</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>0.1972304</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>0.12548509999999999</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>0.19805900000000001</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>0.13241459999999999</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>0.2122484</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>0.1330305</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>0.203241</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>0.13242019999999999</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>0.2014128</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0.12443319999999999</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>0.19864699999999999</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0.13483909999999999</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>0.2023761</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>0.13335</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>0.20367650000000001</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>0.13447010000000001</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>0.19810249999999999</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>0.1235976</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>0.20573839999999999</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0.13400880000000001</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>0.19826750000000001</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0.13414119999999999</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>0.20226169999999999</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>0.13308039999999999</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>0.20249229999999999</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>0.124552</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>0.19863140000000001</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>0.1336562</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>0.2032774</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>0.13302820000000001</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>0.19809640000000001</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>0.12675600000000001</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>0.19934479999999999</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>0.13423679999999999</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>0.204371</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>0.13348460000000001</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>0.2100862</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>0.1330981</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>0.19636719999999999</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0.12708430000000001</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>0.199716</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0.13476369999999999</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>0.19852349999999999</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>0.1322007</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>0.20055539999999999</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>0.1303117</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>0.20408380000000001</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>0.13312499999999999</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>0.2063257</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>0.1309794</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>0.20424809999999999</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>0.13004750000000001</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>0.1984226</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>0.12941369999999999</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>0.20424809999999999</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>0.1289042</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>0.19554920000000001</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>0.1205695</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>0.19881889999999999</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>0.1184497</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>0.19501579999999999</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>0.13398209999999999</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>0.1980557</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>0.13273979999999999</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>0.1963994</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>0.13312950000000001</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>0.19860990000000001</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>0.13509850000000001</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>0.19810749999999999</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>0.1252798</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>0.19835539999999999</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>0.1350729</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>0.20206830000000001</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>0.13338469999999999</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>0.19717589999999999</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>0.13077910000000001</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>0.19522500000000001</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>0.12155879999999999</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>0.19593569999999999</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>0.13060550000000001</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>0.20394329999999999</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>0.12578239999999999</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>0.20711060000000001</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>0.13203090000000001</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>0.19619710000000001</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>0.1251187</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>0.210808</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>0.13077230000000001</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>0.2018693</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>0.12953529999999999</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>0.2027726</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>0.1309592</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>0.1976716</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>0.12290669999999999</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>0.1961109</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>0.13078210000000001</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>0.2065988</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>0.13389409999999999</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>0.1993364</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0.13210150000000001</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>0.19634299999999999</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>0.1232941</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>0.1973162</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>0.13342989999999999</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>0.20327700000000001</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>0.1337911</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>0.19863349999999999</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>0.12480040000000001</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>0.19909470000000001</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>0.13806740000000001</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>0.20503489999999999</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>0.13427249999999999</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>0.19618620000000001</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>0.12325270000000001</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>0.1989447</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>0.13192989999999999</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>0.19541220000000001</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>0.13045970000000001</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>0.20225170000000001</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>0.12749099999999999</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>0.19885459999999999</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>0.133795</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>0.204683</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>0.13209360000000001</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>0.19803090000000001</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>0.13147210000000001</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>0.20084550000000001</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>0.13385559999999999</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>0.2043971</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>0.1245923</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>0.19528139999999999</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>0.13272500000000001</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>0.20737439999999999</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>0.1329417</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>0.2043209</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.13078219999999999</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>0.20178850000000001</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>0.1315964</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>0.19737399999999999</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>0.1321668</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>0.20108889999999999</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>0.134295</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>0.20147909999999999</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>0.13018759999999999</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>0.20413680000000001</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>0.1306263</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>0.20724699999999999</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>0.1245521</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>0.20155899999999999</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>0.1254017</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>0.21083579999999999</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>0.13090470000000001</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>0.19620950000000001</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>0.1313098</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>0.19617889999999999</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>0.13130610000000001</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>0.20828920000000001</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>0.1327747</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>0.19533429999999999</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>0.1305954</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>0.19742760000000001</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>0.1328464</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>0.2085555</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>0.13626279999999999</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>0.20357169999999999</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>0.1323038</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>0.1952218</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>0.13144459999999999</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>0.2006452</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>0.1310036</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>0.19936139999999999</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>0.132381</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>0.19667519999999999</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>0.1312644</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>0.1965742</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>0.1307719</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>0.2004601</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>0.13324420000000001</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>0.20135610000000001</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>0.1202998</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>0.19838069999999999</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>0.13012219999999999</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>0.19793359999999999</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>0.1231452</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>0.1954254</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>0.12962960000000001</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>0.20376530000000001</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>0.1317507</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>0.20727670000000001</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0.13218569999999999</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>0.20190549999999999</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0.130721</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>0.20554210000000001</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>0.133268</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>0.2061481</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>0.1373038</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>0.19684879999999999</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0.13184609999999999</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>0.2066993</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>0.1224614</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>0.19710949999999999</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>0.13127730000000001</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>0.19826759999999999</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>0.1214127</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>0.19873080000000001</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>0.13033900000000001</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>0.207235</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>0.1301715</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>0.19467780000000001</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>0.12974169999999999</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>0.1984641</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>0.13226589999999999</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>0.1982836</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>0.13413530000000001</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>0.21010190000000001</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0.13037199999999999</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>0.2005025</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>0.12502250000000001</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>0.20294719999999999</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0.1329997</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>0.1971453</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>0.1338539</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>0.2074463</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>0.1317286</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>0.19621259999999999</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>0.1317189</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>0.1969494</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>0.13035099999999999</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>0.20462610000000001</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>0.12391199999999999</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>0.20193739999999999</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>0.13214100000000001</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>0.1988935</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>0.13032289999999999</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>0.1987642</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>0.12971289999999999</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>0.1959697</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>0.129944</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>0.19739180000000001</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>0.1192019</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>0.1963703</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>0.13124659999999999</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>0.20670640000000001</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>0.13520260000000001</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>0.20474029999999999</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>0.124782</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>0.1979939</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>0.13391919999999999</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>0.20084949999999999</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>0.13500499999999999</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>0.20841380000000001</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>0.1258534</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>0.243281</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>0.16725899999999999</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>0.24005409999999999</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>0.1794028</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>0.21615300000000001</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>0.19107730000000001</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>0.21941959999999999</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>0.15996270000000001</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>0.25978879999999999</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>0.17668400000000001</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>0.26284839999999998</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>0.1538689</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>0.27258919999999998</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>0.150814</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>0.24229419999999999</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>0.18065200000000001</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>0.2164587</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>0.16840189999999999</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>0.22368779999999999</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>0.14905650000000001</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>0.26247569999999998</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>0.1480388</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>0.2180597</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>0.15533230000000001</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>0.24144199999999999</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>0.15563489999999999</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>0.21714059999999999</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>0.1444347</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>0.208375</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>0.1393597</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>0.22257479999999999</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0.13657369999999999</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>0.20524709999999999</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0.13740659999999999</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>0.20885909999999999</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>0.1243373</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>0.20949519999999999</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>0.1243513</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>0.19975080000000001</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>0.13240979999999999</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>0.2001067</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>0.13150290000000001</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>0.196294</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>0.13088340000000001</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>0.20553969999999999</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>0.1254035</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>0.20119400000000001</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>0.13311049999999999</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>0.19784889999999999</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>0.13536500000000001</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>0.1986192</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>0.1328686</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>0.20348250000000001</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>0.13371140000000001</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>0.19989509999999999</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0.13380400000000001</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>0.20160169999999999</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>0.13350400000000001</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>0.1970133</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0.1309254</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>0.20359070000000001</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>0.134046</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>0.19805</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0.13244819999999999</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>0.19645650000000001</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>0.13171160000000001</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>0.1976204</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>0.1230916</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>0.20376569999999999</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>0.1418981</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>0.1989949</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>0.13272010000000001</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>0.2066568</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>0.13380400000000001</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>0.20134379999999999</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>0.13147629999999999</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>0.20222290000000001</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>0.12406499999999999</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>0.20311489999999999</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>0.133601</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>0.21157219999999999</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>0.12660750000000001</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>0.1994272</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>0.13227259999999999</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>0.20664179999999999</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>0.13447300000000001</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>0.21269450000000001</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>0.1331398</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>0.1988104</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>0.122946</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>0.20276540000000001</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0.13105810000000001</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>0.19618350000000001</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>0.13481319999999999</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>0.19763739999999999</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0.13283739999999999</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>0.19669610000000001</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>0.1341493</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>0.197161</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>0.13251789999999999</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>0.2014591</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>0.12562880000000001</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>0.19959150000000001</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>0.13441890000000001</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>0.19744590000000001</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>0.1228336</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>0.2037564</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>0.13095670000000001</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>0.19497680000000001</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>0.13425319999999999</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>0.2015169</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>0.13733210000000001</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>0.20560819999999999</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>0.13295170000000001</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>0.19937650000000001</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0.135404</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>0.20131959999999999</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>0.13304360000000001</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>0.2171276</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>0.1330528</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>0.20426540000000001</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>0.13555239999999999</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>0.19935</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>0.1329912</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>0.20679990000000001</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>0.1323878</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>0.1979668</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>0.13234380000000001</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>0.2070816</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>0.13398699999999999</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>0.19844310000000001</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>0.12447370000000001</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>0.20259849999999999</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>0.1262616</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1001">
         <v>0.25557390000000002</v>
       </c>
@@ -8421,7 +8421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8433,7 +8433,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
